--- a/M-07(July)/Week-11/15 July/Prods/Training_Analysis/Analysis/cleaned_data.xlsx
+++ b/M-07(July)/Week-11/15 July/Prods/Training_Analysis/Analysis/cleaned_data.xlsx
@@ -610,10 +610,10 @@
       </c>
       <c r="O2" t="inlineStr"/>
       <c r="P2" t="n">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="Q2" t="n">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="R2" t="inlineStr">
         <is>
@@ -701,10 +701,10 @@
       </c>
       <c r="O3" t="inlineStr"/>
       <c r="P3" t="n">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="Q3" t="n">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="R3" t="inlineStr">
         <is>
@@ -795,7 +795,7 @@
         <v>59</v>
       </c>
       <c r="Q4" t="n">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="R4" t="inlineStr">
         <is>
@@ -886,7 +886,7 @@
         <v>67</v>
       </c>
       <c r="Q5" t="n">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>
@@ -974,10 +974,10 @@
       </c>
       <c r="O6" t="inlineStr"/>
       <c r="P6" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="Q6" t="n">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="R6" t="inlineStr">
         <is>
@@ -1065,10 +1065,10 @@
       </c>
       <c r="O7" t="inlineStr"/>
       <c r="P7" t="n">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="Q7" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="R7" t="inlineStr">
         <is>
@@ -1156,10 +1156,10 @@
       </c>
       <c r="O8" t="inlineStr"/>
       <c r="P8" t="n">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="Q8" t="n">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="R8" t="inlineStr">
         <is>
@@ -1247,10 +1247,10 @@
       </c>
       <c r="O9" t="inlineStr"/>
       <c r="P9" t="n">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="Q9" t="n">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="R9" t="inlineStr">
         <is>
@@ -1338,10 +1338,10 @@
       </c>
       <c r="O10" t="inlineStr"/>
       <c r="P10" t="n">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="Q10" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="R10" t="inlineStr">
         <is>
@@ -1429,10 +1429,10 @@
       </c>
       <c r="O11" t="inlineStr"/>
       <c r="P11" t="n">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="Q11" t="n">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="R11" t="inlineStr">
         <is>
@@ -1520,7 +1520,7 @@
       </c>
       <c r="O12" t="inlineStr"/>
       <c r="P12" t="n">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="Q12" t="n">
         <v>82</v>
@@ -1611,10 +1611,10 @@
       </c>
       <c r="O13" t="inlineStr"/>
       <c r="P13" t="n">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="Q13" t="n">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="R13" t="inlineStr">
         <is>
@@ -1702,10 +1702,10 @@
       </c>
       <c r="O14" t="inlineStr"/>
       <c r="P14" t="n">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="Q14" t="n">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="R14" t="inlineStr">
         <is>
@@ -1793,10 +1793,10 @@
       </c>
       <c r="O15" t="inlineStr"/>
       <c r="P15" t="n">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="Q15" t="n">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="R15" t="inlineStr">
         <is>
@@ -1884,10 +1884,10 @@
       </c>
       <c r="O16" t="inlineStr"/>
       <c r="P16" t="n">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="Q16" t="n">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="R16" t="inlineStr">
         <is>
@@ -1975,10 +1975,10 @@
       </c>
       <c r="O17" t="inlineStr"/>
       <c r="P17" t="n">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="Q17" t="n">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="R17" t="inlineStr">
         <is>
@@ -2066,10 +2066,10 @@
       </c>
       <c r="O18" t="inlineStr"/>
       <c r="P18" t="n">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="Q18" t="n">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="R18" t="inlineStr">
         <is>
@@ -2157,10 +2157,10 @@
       </c>
       <c r="O19" t="inlineStr"/>
       <c r="P19" t="n">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="Q19" t="n">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="R19" t="inlineStr">
         <is>
@@ -2251,7 +2251,7 @@
         <v>79</v>
       </c>
       <c r="Q20" t="n">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="R20" t="inlineStr">
         <is>
@@ -2339,10 +2339,10 @@
       </c>
       <c r="O21" t="inlineStr"/>
       <c r="P21" t="n">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="Q21" t="n">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="R21" t="inlineStr">
         <is>
@@ -2430,10 +2430,10 @@
       </c>
       <c r="O22" t="inlineStr"/>
       <c r="P22" t="n">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="Q22" t="n">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="R22" t="inlineStr">
         <is>
@@ -2521,10 +2521,10 @@
       </c>
       <c r="O23" t="inlineStr"/>
       <c r="P23" t="n">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="Q23" t="n">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="R23" t="inlineStr">
         <is>
@@ -2612,10 +2612,10 @@
       </c>
       <c r="O24" t="inlineStr"/>
       <c r="P24" t="n">
+        <v>67</v>
+      </c>
+      <c r="Q24" t="n">
         <v>72</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>70</v>
       </c>
       <c r="R24" t="inlineStr">
         <is>
@@ -2703,10 +2703,10 @@
       </c>
       <c r="O25" t="inlineStr"/>
       <c r="P25" t="n">
-        <v>92</v>
+        <v>49</v>
       </c>
       <c r="Q25" t="n">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="R25" t="inlineStr">
         <is>
@@ -2794,10 +2794,10 @@
       </c>
       <c r="O26" t="inlineStr"/>
       <c r="P26" t="n">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="Q26" t="n">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="R26" t="inlineStr">
         <is>
@@ -2885,10 +2885,10 @@
       </c>
       <c r="O27" t="inlineStr"/>
       <c r="P27" t="n">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="Q27" t="n">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="R27" t="inlineStr">
         <is>
@@ -2976,10 +2976,10 @@
       </c>
       <c r="O28" t="inlineStr"/>
       <c r="P28" t="n">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="Q28" t="n">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="R28" t="inlineStr">
         <is>
@@ -3067,7 +3067,7 @@
       </c>
       <c r="O29" t="inlineStr"/>
       <c r="P29" t="n">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="Q29" t="n">
         <v>69</v>
@@ -3158,10 +3158,10 @@
       </c>
       <c r="O30" t="inlineStr"/>
       <c r="P30" t="n">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="Q30" t="n">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="R30" t="inlineStr">
         <is>
@@ -3249,10 +3249,10 @@
       </c>
       <c r="O31" t="inlineStr"/>
       <c r="P31" t="n">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="Q31" t="n">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="R31" t="inlineStr">
         <is>
@@ -3340,7 +3340,7 @@
       </c>
       <c r="O32" t="inlineStr"/>
       <c r="P32" t="n">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="Q32" t="n">
         <v>80</v>
@@ -3431,10 +3431,10 @@
       </c>
       <c r="O33" t="inlineStr"/>
       <c r="P33" t="n">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="Q33" t="n">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="R33" t="inlineStr">
         <is>
@@ -3522,10 +3522,10 @@
       </c>
       <c r="O34" t="inlineStr"/>
       <c r="P34" t="n">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="Q34" t="n">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R34" t="inlineStr">
         <is>
@@ -3613,10 +3613,10 @@
       </c>
       <c r="O35" t="inlineStr"/>
       <c r="P35" t="n">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="Q35" t="n">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="R35" t="inlineStr">
         <is>
@@ -3704,10 +3704,10 @@
       </c>
       <c r="O36" t="inlineStr"/>
       <c r="P36" t="n">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="Q36" t="n">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="R36" t="inlineStr">
         <is>
@@ -3795,10 +3795,10 @@
       </c>
       <c r="O37" t="inlineStr"/>
       <c r="P37" t="n">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Q37" t="n">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="R37" t="inlineStr">
         <is>
@@ -3886,10 +3886,10 @@
       </c>
       <c r="O38" t="inlineStr"/>
       <c r="P38" t="n">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="Q38" t="n">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="R38" t="inlineStr">
         <is>
@@ -3977,10 +3977,10 @@
       </c>
       <c r="O39" t="inlineStr"/>
       <c r="P39" t="n">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="Q39" t="n">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="R39" t="inlineStr">
         <is>
@@ -4068,10 +4068,10 @@
       </c>
       <c r="O40" t="inlineStr"/>
       <c r="P40" t="n">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="Q40" t="n">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="R40" t="inlineStr">
         <is>
@@ -4159,10 +4159,10 @@
       </c>
       <c r="O41" t="inlineStr"/>
       <c r="P41" t="n">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="Q41" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="R41" t="inlineStr">
         <is>
@@ -4254,10 +4254,10 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="Q42" t="n">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="R42" t="inlineStr">
         <is>
@@ -4349,10 +4349,10 @@
         </is>
       </c>
       <c r="P43" t="n">
+        <v>75</v>
+      </c>
+      <c r="Q43" t="n">
         <v>84</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>71</v>
       </c>
       <c r="R43" t="inlineStr">
         <is>
@@ -4444,10 +4444,10 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="Q44" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="R44" t="inlineStr">
         <is>
@@ -4539,10 +4539,10 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Q45" t="n">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="R45" t="inlineStr">
         <is>
@@ -4634,10 +4634,10 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="Q46" t="n">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="R46" t="inlineStr">
         <is>
@@ -4729,10 +4729,10 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="Q47" t="n">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="R47" t="inlineStr">
         <is>
@@ -4824,7 +4824,7 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="Q48" t="n">
         <v>82</v>
@@ -4919,10 +4919,10 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="Q49" t="n">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="R49" t="inlineStr">
         <is>
@@ -5014,10 +5014,10 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="Q50" t="n">
-        <v>87</v>
+        <v>61</v>
       </c>
       <c r="R50" t="inlineStr">
         <is>
@@ -5109,10 +5109,10 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="Q51" t="n">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="R51" t="inlineStr">
         <is>
@@ -5204,10 +5204,10 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="Q52" t="n">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="R52" t="inlineStr">
         <is>
@@ -5299,10 +5299,10 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="Q53" t="n">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="R53" t="inlineStr">
         <is>
@@ -5394,10 +5394,10 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="Q54" t="n">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="R54" t="inlineStr">
         <is>
@@ -5489,10 +5489,10 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="Q55" t="n">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="R55" t="inlineStr">
         <is>
@@ -5584,10 +5584,10 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="Q56" t="n">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="R56" t="inlineStr">
         <is>
@@ -5679,10 +5679,10 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="Q57" t="n">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="R57" t="inlineStr">
         <is>
@@ -5774,10 +5774,10 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Q58" t="n">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="R58" t="inlineStr">
         <is>
@@ -5869,10 +5869,10 @@
         </is>
       </c>
       <c r="P59" t="n">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="Q59" t="n">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="R59" t="inlineStr">
         <is>
@@ -5964,10 +5964,10 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="Q60" t="n">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="R60" t="inlineStr">
         <is>
@@ -6059,10 +6059,10 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="Q61" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="R61" t="inlineStr">
         <is>
@@ -6154,10 +6154,10 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="Q62" t="n">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="R62" t="inlineStr">
         <is>
@@ -6249,10 +6249,10 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="Q63" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="R63" t="inlineStr">
         <is>
@@ -6344,10 +6344,10 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="Q64" t="n">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="R64" t="inlineStr">
         <is>
@@ -6439,10 +6439,10 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>64</v>
+        <v>86</v>
       </c>
       <c r="Q65" t="n">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="R65" t="inlineStr">
         <is>
@@ -6534,10 +6534,10 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="Q66" t="n">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="R66" t="inlineStr">
         <is>
@@ -6629,10 +6629,10 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="Q67" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="R67" t="inlineStr">
         <is>
@@ -6724,10 +6724,10 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="Q68" t="n">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="R68" t="inlineStr">
         <is>
@@ -6819,10 +6819,10 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="Q69" t="n">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="R69" t="inlineStr">
         <is>
@@ -6914,10 +6914,10 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="Q70" t="n">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="R70" t="inlineStr">
         <is>
@@ -7009,10 +7009,10 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="Q71" t="n">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="R71" t="inlineStr">
         <is>
@@ -7104,10 +7104,10 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="Q72" t="n">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="R72" t="inlineStr">
         <is>
@@ -7199,10 +7199,10 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="Q73" t="n">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="R73" t="inlineStr">
         <is>
@@ -7294,10 +7294,10 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="Q74" t="n">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="R74" t="inlineStr">
         <is>
@@ -7389,10 +7389,10 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="Q75" t="n">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="R75" t="inlineStr">
         <is>
@@ -7484,10 +7484,10 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="Q76" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="R76" t="inlineStr">
         <is>
@@ -7583,10 +7583,10 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Q77" t="n">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="R77" t="inlineStr">
         <is>
@@ -7682,10 +7682,10 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="Q78" t="n">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="R78" t="inlineStr">
         <is>
@@ -7781,10 +7781,10 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="Q79" t="n">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="R79" t="inlineStr">
         <is>
@@ -7880,10 +7880,10 @@
         </is>
       </c>
       <c r="P80" t="n">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="Q80" t="n">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="R80" t="inlineStr">
         <is>
@@ -7979,10 +7979,10 @@
         </is>
       </c>
       <c r="P81" t="n">
-        <v>48</v>
+        <v>81</v>
       </c>
       <c r="Q81" t="n">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="R81" t="inlineStr">
         <is>
@@ -8078,10 +8078,10 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="Q82" t="n">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="R82" t="inlineStr">
         <is>
@@ -8177,10 +8177,10 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="Q83" t="n">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="R83" t="inlineStr">
         <is>
@@ -8276,10 +8276,10 @@
         </is>
       </c>
       <c r="P84" t="n">
+        <v>69</v>
+      </c>
+      <c r="Q84" t="n">
         <v>63</v>
-      </c>
-      <c r="Q84" t="n">
-        <v>71</v>
       </c>
       <c r="R84" t="inlineStr">
         <is>
@@ -8375,10 +8375,10 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="Q85" t="n">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="R85" t="inlineStr">
         <is>
@@ -8474,10 +8474,10 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="Q86" t="n">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="R86" t="inlineStr">
         <is>
@@ -8573,10 +8573,10 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>64</v>
+        <v>91</v>
       </c>
       <c r="Q87" t="n">
-        <v>71</v>
+        <v>99</v>
       </c>
       <c r="R87" t="inlineStr">
         <is>
@@ -8672,10 +8672,10 @@
         </is>
       </c>
       <c r="P88" t="n">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="Q88" t="n">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="R88" t="inlineStr">
         <is>
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="P89" t="n">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="Q89" t="n">
         <v>61</v>
@@ -8870,10 +8870,10 @@
         </is>
       </c>
       <c r="P90" t="n">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="Q90" t="n">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="R90" t="inlineStr">
         <is>
@@ -8969,10 +8969,10 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q91" t="n">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="R91" t="inlineStr">
         <is>
@@ -9068,10 +9068,10 @@
         </is>
       </c>
       <c r="P92" t="n">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="Q92" t="n">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="R92" t="inlineStr">
         <is>
@@ -9167,10 +9167,10 @@
         </is>
       </c>
       <c r="P93" t="n">
+        <v>71</v>
+      </c>
+      <c r="Q93" t="n">
         <v>86</v>
-      </c>
-      <c r="Q93" t="n">
-        <v>76</v>
       </c>
       <c r="R93" t="inlineStr">
         <is>
@@ -9266,10 +9266,10 @@
         </is>
       </c>
       <c r="P94" t="n">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="Q94" t="n">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="R94" t="inlineStr">
         <is>
@@ -9365,10 +9365,10 @@
         </is>
       </c>
       <c r="P95" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="Q95" t="n">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="R95" t="inlineStr">
         <is>
@@ -9464,10 +9464,10 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="Q96" t="n">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="R96" t="inlineStr">
         <is>
@@ -9559,10 +9559,10 @@
         </is>
       </c>
       <c r="P97" t="n">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="Q97" t="n">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="R97" t="inlineStr">
         <is>
@@ -9654,10 +9654,10 @@
         </is>
       </c>
       <c r="P98" t="n">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="Q98" t="n">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="R98" t="inlineStr">
         <is>
@@ -9749,10 +9749,10 @@
         </is>
       </c>
       <c r="P99" t="n">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="Q99" t="n">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="R99" t="inlineStr">
         <is>
@@ -9844,10 +9844,10 @@
         </is>
       </c>
       <c r="P100" t="n">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="Q100" t="n">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="R100" t="inlineStr">
         <is>
@@ -9939,10 +9939,10 @@
         </is>
       </c>
       <c r="P101" t="n">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Q101" t="n">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="R101" t="inlineStr">
         <is>
@@ -10037,7 +10037,7 @@
         <v>62</v>
       </c>
       <c r="Q102" t="n">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="R102" t="inlineStr">
         <is>
@@ -10129,10 +10129,10 @@
         </is>
       </c>
       <c r="P103" t="n">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="Q103" t="n">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="R103" t="inlineStr">
         <is>
@@ -10224,10 +10224,10 @@
         </is>
       </c>
       <c r="P104" t="n">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="Q104" t="n">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="R104" t="inlineStr">
         <is>
@@ -10319,10 +10319,10 @@
         </is>
       </c>
       <c r="P105" t="n">
-        <v>89</v>
+        <v>56</v>
       </c>
       <c r="Q105" t="n">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="R105" t="inlineStr">
         <is>
@@ -10414,10 +10414,10 @@
         </is>
       </c>
       <c r="P106" t="n">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="Q106" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="R106" t="inlineStr">
         <is>
@@ -10509,10 +10509,10 @@
         </is>
       </c>
       <c r="P107" t="n">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="Q107" t="n">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="R107" t="inlineStr">
         <is>
@@ -10607,7 +10607,7 @@
         <v>84</v>
       </c>
       <c r="Q108" t="n">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="R108" t="inlineStr">
         <is>
@@ -10699,10 +10699,10 @@
         </is>
       </c>
       <c r="P109" t="n">
-        <v>66</v>
+        <v>85</v>
       </c>
       <c r="Q109" t="n">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="R109" t="inlineStr">
         <is>
@@ -10794,10 +10794,10 @@
         </is>
       </c>
       <c r="P110" t="n">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="Q110" t="n">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="R110" t="inlineStr">
         <is>
@@ -10889,10 +10889,10 @@
         </is>
       </c>
       <c r="P111" t="n">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="Q111" t="n">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="R111" t="inlineStr">
         <is>
@@ -10984,10 +10984,10 @@
         </is>
       </c>
       <c r="P112" t="n">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="Q112" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="R112" t="inlineStr">
         <is>
@@ -11083,10 +11083,10 @@
         </is>
       </c>
       <c r="P113" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="Q113" t="n">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="R113" t="inlineStr">
         <is>
@@ -11182,10 +11182,10 @@
         </is>
       </c>
       <c r="P114" t="n">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="Q114" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R114" t="inlineStr">
         <is>
@@ -11281,10 +11281,10 @@
         </is>
       </c>
       <c r="P115" t="n">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="Q115" t="n">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="R115" t="inlineStr">
         <is>
@@ -11380,10 +11380,10 @@
         </is>
       </c>
       <c r="P116" t="n">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="Q116" t="n">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="R116" t="inlineStr">
         <is>
@@ -11479,10 +11479,10 @@
         </is>
       </c>
       <c r="P117" t="n">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="Q117" t="n">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="R117" t="inlineStr">
         <is>
@@ -11578,10 +11578,10 @@
         </is>
       </c>
       <c r="P118" t="n">
+        <v>84</v>
+      </c>
+      <c r="Q118" t="n">
         <v>77</v>
-      </c>
-      <c r="Q118" t="n">
-        <v>70</v>
       </c>
       <c r="R118" t="inlineStr">
         <is>
@@ -11677,10 +11677,10 @@
         </is>
       </c>
       <c r="P119" t="n">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="Q119" t="n">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="R119" t="inlineStr">
         <is>
@@ -11776,7 +11776,7 @@
         </is>
       </c>
       <c r="P120" t="n">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="Q120" t="n">
         <v>79</v>
@@ -11875,10 +11875,10 @@
         </is>
       </c>
       <c r="P121" t="n">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="Q121" t="n">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="R121" t="inlineStr">
         <is>
@@ -11974,10 +11974,10 @@
         </is>
       </c>
       <c r="P122" t="n">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="Q122" t="n">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="R122" t="inlineStr">
         <is>
@@ -12073,10 +12073,10 @@
         </is>
       </c>
       <c r="P123" t="n">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="Q123" t="n">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="R123" t="inlineStr">
         <is>
@@ -12172,7 +12172,7 @@
         </is>
       </c>
       <c r="P124" t="n">
-        <v>54</v>
+        <v>80</v>
       </c>
       <c r="Q124" t="n">
         <v>81</v>
@@ -12271,10 +12271,10 @@
         </is>
       </c>
       <c r="P125" t="n">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="Q125" t="n">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="R125" t="inlineStr">
         <is>
@@ -12373,7 +12373,7 @@
         <v>69</v>
       </c>
       <c r="Q126" t="n">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="R126" t="inlineStr">
         <is>
@@ -12469,10 +12469,10 @@
         </is>
       </c>
       <c r="P127" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="Q127" t="n">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="R127" t="inlineStr">
         <is>
@@ -12569,10 +12569,10 @@
         </is>
       </c>
       <c r="P128" t="n">
-        <v>68</v>
+        <v>93</v>
       </c>
       <c r="Q128" t="n">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="R128" t="inlineStr">
         <is>
@@ -12668,10 +12668,10 @@
         </is>
       </c>
       <c r="P129" t="n">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="Q129" t="n">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="R129" t="inlineStr">
         <is>
@@ -12767,7 +12767,7 @@
         </is>
       </c>
       <c r="P130" t="n">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="Q130" t="n">
         <v>74</v>
@@ -12866,10 +12866,10 @@
         </is>
       </c>
       <c r="P131" t="n">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="Q131" t="n">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="R131" t="inlineStr">
         <is>
@@ -12965,10 +12965,10 @@
         </is>
       </c>
       <c r="P132" t="n">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="Q132" t="n">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="R132" t="inlineStr">
         <is>
@@ -13064,10 +13064,10 @@
         </is>
       </c>
       <c r="P133" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="Q133" t="n">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="R133" t="inlineStr">
         <is>
@@ -13163,10 +13163,10 @@
         </is>
       </c>
       <c r="P134" t="n">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="Q134" t="n">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="R134" t="inlineStr">
         <is>
@@ -13262,10 +13262,10 @@
         </is>
       </c>
       <c r="P135" t="n">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Q135" t="n">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="R135" t="inlineStr">
         <is>
@@ -13361,10 +13361,10 @@
         </is>
       </c>
       <c r="P136" t="n">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="Q136" t="n">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="R136" t="inlineStr">
         <is>
@@ -13460,10 +13460,10 @@
         </is>
       </c>
       <c r="P137" t="n">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="Q137" t="n">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="R137" t="inlineStr">
         <is>
@@ -13559,10 +13559,10 @@
         </is>
       </c>
       <c r="P138" t="n">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="Q138" t="n">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="R138" t="inlineStr">
         <is>
@@ -13661,7 +13661,7 @@
         <v>60</v>
       </c>
       <c r="Q139" t="n">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="R139" t="inlineStr">
         <is>
@@ -13757,10 +13757,10 @@
         </is>
       </c>
       <c r="P140" t="n">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="Q140" t="n">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="R140" t="inlineStr">
         <is>
@@ -13856,10 +13856,10 @@
         </is>
       </c>
       <c r="P141" t="n">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="Q141" t="n">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="R141" t="inlineStr">
         <is>
@@ -13951,10 +13951,10 @@
         </is>
       </c>
       <c r="P142" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="Q142" t="n">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="R142" t="inlineStr">
         <is>
@@ -14046,10 +14046,10 @@
         </is>
       </c>
       <c r="P143" t="n">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="Q143" t="n">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="R143" t="inlineStr">
         <is>
@@ -14141,10 +14141,10 @@
         </is>
       </c>
       <c r="P144" t="n">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="Q144" t="n">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="R144" t="inlineStr">
         <is>
@@ -14236,10 +14236,10 @@
         </is>
       </c>
       <c r="P145" t="n">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="Q145" t="n">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="R145" t="inlineStr">
         <is>
@@ -14331,10 +14331,10 @@
         </is>
       </c>
       <c r="P146" t="n">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="Q146" t="n">
-        <v>62</v>
+        <v>87</v>
       </c>
       <c r="R146" t="inlineStr">
         <is>
@@ -14426,10 +14426,10 @@
         </is>
       </c>
       <c r="P147" t="n">
-        <v>87</v>
+        <v>50</v>
       </c>
       <c r="Q147" t="n">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R147" t="inlineStr">
         <is>
@@ -14521,10 +14521,10 @@
         </is>
       </c>
       <c r="P148" t="n">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="Q148" t="n">
-        <v>62</v>
+        <v>85</v>
       </c>
       <c r="R148" t="inlineStr">
         <is>
@@ -14616,10 +14616,10 @@
         </is>
       </c>
       <c r="P149" t="n">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="Q149" t="n">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="R149" t="inlineStr">
         <is>
@@ -14711,10 +14711,10 @@
         </is>
       </c>
       <c r="P150" t="n">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="Q150" t="n">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="R150" t="inlineStr">
         <is>
@@ -14806,10 +14806,10 @@
         </is>
       </c>
       <c r="P151" t="n">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="Q151" t="n">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="R151" t="inlineStr">
         <is>
@@ -14901,10 +14901,10 @@
         </is>
       </c>
       <c r="P152" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Q152" t="n">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="R152" t="inlineStr">
         <is>
@@ -14996,10 +14996,10 @@
         </is>
       </c>
       <c r="P153" t="n">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="Q153" t="n">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="R153" t="inlineStr">
         <is>

--- a/M-07(July)/Week-11/15 July/Prods/Training_Analysis/Analysis/cleaned_data.xlsx
+++ b/M-07(July)/Week-11/15 July/Prods/Training_Analysis/Analysis/cleaned_data.xlsx
@@ -610,10 +610,10 @@
       </c>
       <c r="O2" t="inlineStr"/>
       <c r="P2" t="n">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="Q2" t="n">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="R2" t="inlineStr">
         <is>
@@ -701,10 +701,10 @@
       </c>
       <c r="O3" t="inlineStr"/>
       <c r="P3" t="n">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="Q3" t="n">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="R3" t="inlineStr">
         <is>
@@ -792,10 +792,10 @@
       </c>
       <c r="O4" t="inlineStr"/>
       <c r="P4" t="n">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="Q4" t="n">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="R4" t="inlineStr">
         <is>
@@ -883,10 +883,10 @@
       </c>
       <c r="O5" t="inlineStr"/>
       <c r="P5" t="n">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="Q5" t="n">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>
@@ -974,10 +974,10 @@
       </c>
       <c r="O6" t="inlineStr"/>
       <c r="P6" t="n">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="Q6" t="n">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="R6" t="inlineStr">
         <is>
@@ -1065,10 +1065,10 @@
       </c>
       <c r="O7" t="inlineStr"/>
       <c r="P7" t="n">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="Q7" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="R7" t="inlineStr">
         <is>
@@ -1156,10 +1156,10 @@
       </c>
       <c r="O8" t="inlineStr"/>
       <c r="P8" t="n">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="Q8" t="n">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="R8" t="inlineStr">
         <is>
@@ -1247,10 +1247,10 @@
       </c>
       <c r="O9" t="inlineStr"/>
       <c r="P9" t="n">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="Q9" t="n">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="R9" t="inlineStr">
         <is>
@@ -1338,10 +1338,10 @@
       </c>
       <c r="O10" t="inlineStr"/>
       <c r="P10" t="n">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="Q10" t="n">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="R10" t="inlineStr">
         <is>
@@ -1429,10 +1429,10 @@
       </c>
       <c r="O11" t="inlineStr"/>
       <c r="P11" t="n">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="Q11" t="n">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="R11" t="inlineStr">
         <is>
@@ -1520,10 +1520,10 @@
       </c>
       <c r="O12" t="inlineStr"/>
       <c r="P12" t="n">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="Q12" t="n">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="R12" t="inlineStr">
         <is>
@@ -1611,10 +1611,10 @@
       </c>
       <c r="O13" t="inlineStr"/>
       <c r="P13" t="n">
-        <v>77</v>
+        <v>102</v>
       </c>
       <c r="Q13" t="n">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="R13" t="inlineStr">
         <is>
@@ -1702,10 +1702,10 @@
       </c>
       <c r="O14" t="inlineStr"/>
       <c r="P14" t="n">
+        <v>67</v>
+      </c>
+      <c r="Q14" t="n">
         <v>74</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>81</v>
       </c>
       <c r="R14" t="inlineStr">
         <is>
@@ -1793,10 +1793,10 @@
       </c>
       <c r="O15" t="inlineStr"/>
       <c r="P15" t="n">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="Q15" t="n">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="R15" t="inlineStr">
         <is>
@@ -1884,10 +1884,10 @@
       </c>
       <c r="O16" t="inlineStr"/>
       <c r="P16" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Q16" t="n">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="R16" t="inlineStr">
         <is>
@@ -1975,10 +1975,10 @@
       </c>
       <c r="O17" t="inlineStr"/>
       <c r="P17" t="n">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="Q17" t="n">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="R17" t="inlineStr">
         <is>
@@ -2066,10 +2066,10 @@
       </c>
       <c r="O18" t="inlineStr"/>
       <c r="P18" t="n">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="Q18" t="n">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="R18" t="inlineStr">
         <is>
@@ -2157,10 +2157,10 @@
       </c>
       <c r="O19" t="inlineStr"/>
       <c r="P19" t="n">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="Q19" t="n">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="R19" t="inlineStr">
         <is>
@@ -2248,10 +2248,10 @@
       </c>
       <c r="O20" t="inlineStr"/>
       <c r="P20" t="n">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="Q20" t="n">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="R20" t="inlineStr">
         <is>
@@ -2342,7 +2342,7 @@
         <v>67</v>
       </c>
       <c r="Q21" t="n">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="R21" t="inlineStr">
         <is>
@@ -2430,10 +2430,10 @@
       </c>
       <c r="O22" t="inlineStr"/>
       <c r="P22" t="n">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="Q22" t="n">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="R22" t="inlineStr">
         <is>
@@ -2521,10 +2521,10 @@
       </c>
       <c r="O23" t="inlineStr"/>
       <c r="P23" t="n">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="Q23" t="n">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="R23" t="inlineStr">
         <is>
@@ -2612,10 +2612,10 @@
       </c>
       <c r="O24" t="inlineStr"/>
       <c r="P24" t="n">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="Q24" t="n">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="R24" t="inlineStr">
         <is>
@@ -2703,10 +2703,10 @@
       </c>
       <c r="O25" t="inlineStr"/>
       <c r="P25" t="n">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="Q25" t="n">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="R25" t="inlineStr">
         <is>
@@ -2794,10 +2794,10 @@
       </c>
       <c r="O26" t="inlineStr"/>
       <c r="P26" t="n">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="Q26" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="R26" t="inlineStr">
         <is>
@@ -2885,10 +2885,10 @@
       </c>
       <c r="O27" t="inlineStr"/>
       <c r="P27" t="n">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="Q27" t="n">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="R27" t="inlineStr">
         <is>
@@ -2976,10 +2976,10 @@
       </c>
       <c r="O28" t="inlineStr"/>
       <c r="P28" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="Q28" t="n">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="R28" t="inlineStr">
         <is>
@@ -3067,10 +3067,10 @@
       </c>
       <c r="O29" t="inlineStr"/>
       <c r="P29" t="n">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="Q29" t="n">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="R29" t="inlineStr">
         <is>
@@ -3158,10 +3158,10 @@
       </c>
       <c r="O30" t="inlineStr"/>
       <c r="P30" t="n">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="Q30" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="R30" t="inlineStr">
         <is>
@@ -3249,10 +3249,10 @@
       </c>
       <c r="O31" t="inlineStr"/>
       <c r="P31" t="n">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="Q31" t="n">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R31" t="inlineStr">
         <is>
@@ -3340,10 +3340,10 @@
       </c>
       <c r="O32" t="inlineStr"/>
       <c r="P32" t="n">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="Q32" t="n">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="R32" t="inlineStr">
         <is>
@@ -3431,10 +3431,10 @@
       </c>
       <c r="O33" t="inlineStr"/>
       <c r="P33" t="n">
+        <v>77</v>
+      </c>
+      <c r="Q33" t="n">
         <v>73</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>76</v>
       </c>
       <c r="R33" t="inlineStr">
         <is>
@@ -3522,10 +3522,10 @@
       </c>
       <c r="O34" t="inlineStr"/>
       <c r="P34" t="n">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="Q34" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="R34" t="inlineStr">
         <is>
@@ -3613,10 +3613,10 @@
       </c>
       <c r="O35" t="inlineStr"/>
       <c r="P35" t="n">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="Q35" t="n">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="R35" t="inlineStr">
         <is>
@@ -3704,10 +3704,10 @@
       </c>
       <c r="O36" t="inlineStr"/>
       <c r="P36" t="n">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="Q36" t="n">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="R36" t="inlineStr">
         <is>
@@ -3795,10 +3795,10 @@
       </c>
       <c r="O37" t="inlineStr"/>
       <c r="P37" t="n">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="Q37" t="n">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="R37" t="inlineStr">
         <is>
@@ -3886,10 +3886,10 @@
       </c>
       <c r="O38" t="inlineStr"/>
       <c r="P38" t="n">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="Q38" t="n">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="R38" t="inlineStr">
         <is>
@@ -3977,10 +3977,10 @@
       </c>
       <c r="O39" t="inlineStr"/>
       <c r="P39" t="n">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="Q39" t="n">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="R39" t="inlineStr">
         <is>
@@ -4068,10 +4068,10 @@
       </c>
       <c r="O40" t="inlineStr"/>
       <c r="P40" t="n">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="Q40" t="n">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="R40" t="inlineStr">
         <is>
@@ -4159,10 +4159,10 @@
       </c>
       <c r="O41" t="inlineStr"/>
       <c r="P41" t="n">
-        <v>60</v>
+        <v>86</v>
       </c>
       <c r="Q41" t="n">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="R41" t="inlineStr">
         <is>
@@ -4254,10 +4254,10 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="Q42" t="n">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="R42" t="inlineStr">
         <is>
@@ -4349,10 +4349,10 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="Q43" t="n">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="R43" t="inlineStr">
         <is>
@@ -4444,10 +4444,10 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="Q44" t="n">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="R44" t="inlineStr">
         <is>
@@ -4539,10 +4539,10 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="Q45" t="n">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="R45" t="inlineStr">
         <is>
@@ -4634,10 +4634,10 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="Q46" t="n">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="R46" t="inlineStr">
         <is>
@@ -4729,10 +4729,10 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="Q47" t="n">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="R47" t="inlineStr">
         <is>
@@ -4824,10 +4824,10 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="Q48" t="n">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="R48" t="inlineStr">
         <is>
@@ -4919,10 +4919,10 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="Q49" t="n">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="R49" t="inlineStr">
         <is>
@@ -5014,10 +5014,10 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Q50" t="n">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="R50" t="inlineStr">
         <is>
@@ -5109,10 +5109,10 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="Q51" t="n">
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="R51" t="inlineStr">
         <is>
@@ -5204,10 +5204,10 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="Q52" t="n">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="R52" t="inlineStr">
         <is>
@@ -5299,10 +5299,10 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="Q53" t="n">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="R53" t="inlineStr">
         <is>
@@ -5394,10 +5394,10 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Q54" t="n">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="R54" t="inlineStr">
         <is>
@@ -5489,10 +5489,10 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="Q55" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="R55" t="inlineStr">
         <is>
@@ -5584,10 +5584,10 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="Q56" t="n">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="R56" t="inlineStr">
         <is>
@@ -5679,10 +5679,10 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="Q57" t="n">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="R57" t="inlineStr">
         <is>
@@ -5774,10 +5774,10 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Q58" t="n">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="R58" t="inlineStr">
         <is>
@@ -5869,10 +5869,10 @@
         </is>
       </c>
       <c r="P59" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Q59" t="n">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="R59" t="inlineStr">
         <is>
@@ -5964,10 +5964,10 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="Q60" t="n">
-        <v>62</v>
+        <v>89</v>
       </c>
       <c r="R60" t="inlineStr">
         <is>
@@ -6059,10 +6059,10 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="Q61" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="R61" t="inlineStr">
         <is>
@@ -6154,10 +6154,10 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="Q62" t="n">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="R62" t="inlineStr">
         <is>
@@ -6249,10 +6249,10 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="Q63" t="n">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="R63" t="inlineStr">
         <is>
@@ -6347,7 +6347,7 @@
         <v>73</v>
       </c>
       <c r="Q64" t="n">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="R64" t="inlineStr">
         <is>
@@ -6439,10 +6439,10 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="Q65" t="n">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="R65" t="inlineStr">
         <is>
@@ -6534,10 +6534,10 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="Q66" t="n">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="R66" t="inlineStr">
         <is>
@@ -6629,10 +6629,10 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="Q67" t="n">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="R67" t="inlineStr">
         <is>
@@ -6724,10 +6724,10 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="Q68" t="n">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="R68" t="inlineStr">
         <is>
@@ -6819,10 +6819,10 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="Q69" t="n">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="R69" t="inlineStr">
         <is>
@@ -6914,10 +6914,10 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="Q70" t="n">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="R70" t="inlineStr">
         <is>
@@ -7009,10 +7009,10 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="Q71" t="n">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="R71" t="inlineStr">
         <is>
@@ -7104,10 +7104,10 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="Q72" t="n">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="R72" t="inlineStr">
         <is>
@@ -7199,10 +7199,10 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="Q73" t="n">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="R73" t="inlineStr">
         <is>
@@ -7294,10 +7294,10 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="Q74" t="n">
-        <v>90</v>
+        <v>67</v>
       </c>
       <c r="R74" t="inlineStr">
         <is>
@@ -7389,10 +7389,10 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Q75" t="n">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="R75" t="inlineStr">
         <is>
@@ -7484,10 +7484,10 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="Q76" t="n">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="R76" t="inlineStr">
         <is>
@@ -7583,10 +7583,10 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="Q77" t="n">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="R77" t="inlineStr">
         <is>
@@ -7682,10 +7682,10 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="Q78" t="n">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="R78" t="inlineStr">
         <is>
@@ -7781,10 +7781,10 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="Q79" t="n">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="R79" t="inlineStr">
         <is>
@@ -7880,10 +7880,10 @@
         </is>
       </c>
       <c r="P80" t="n">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="Q80" t="n">
-        <v>58</v>
+        <v>89</v>
       </c>
       <c r="R80" t="inlineStr">
         <is>
@@ -7979,10 +7979,10 @@
         </is>
       </c>
       <c r="P81" t="n">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="Q81" t="n">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="R81" t="inlineStr">
         <is>
@@ -8078,10 +8078,10 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Q82" t="n">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="R82" t="inlineStr">
         <is>
@@ -8177,10 +8177,10 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Q83" t="n">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="R83" t="inlineStr">
         <is>
@@ -8276,10 +8276,10 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Q84" t="n">
-        <v>63</v>
+        <v>86</v>
       </c>
       <c r="R84" t="inlineStr">
         <is>
@@ -8375,10 +8375,10 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="Q85" t="n">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="R85" t="inlineStr">
         <is>
@@ -8474,10 +8474,10 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="Q86" t="n">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="R86" t="inlineStr">
         <is>
@@ -8573,10 +8573,10 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>91</v>
+        <v>54</v>
       </c>
       <c r="Q87" t="n">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="R87" t="inlineStr">
         <is>
@@ -8672,10 +8672,10 @@
         </is>
       </c>
       <c r="P88" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="Q88" t="n">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="R88" t="inlineStr">
         <is>
@@ -8771,10 +8771,10 @@
         </is>
       </c>
       <c r="P89" t="n">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="Q89" t="n">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="R89" t="inlineStr">
         <is>
@@ -8870,10 +8870,10 @@
         </is>
       </c>
       <c r="P90" t="n">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="Q90" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="R90" t="inlineStr">
         <is>
@@ -8969,10 +8969,10 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="Q91" t="n">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="R91" t="inlineStr">
         <is>
@@ -9068,10 +9068,10 @@
         </is>
       </c>
       <c r="P92" t="n">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="Q92" t="n">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="R92" t="inlineStr">
         <is>
@@ -9167,10 +9167,10 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="Q93" t="n">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="R93" t="inlineStr">
         <is>
@@ -9266,10 +9266,10 @@
         </is>
       </c>
       <c r="P94" t="n">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="Q94" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="R94" t="inlineStr">
         <is>
@@ -9365,10 +9365,10 @@
         </is>
       </c>
       <c r="P95" t="n">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="Q95" t="n">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="R95" t="inlineStr">
         <is>
@@ -9464,7 +9464,7 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="Q96" t="n">
         <v>77</v>
@@ -9559,10 +9559,10 @@
         </is>
       </c>
       <c r="P97" t="n">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="Q97" t="n">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="R97" t="inlineStr">
         <is>
@@ -9654,10 +9654,10 @@
         </is>
       </c>
       <c r="P98" t="n">
-        <v>63</v>
+        <v>86</v>
       </c>
       <c r="Q98" t="n">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="R98" t="inlineStr">
         <is>
@@ -9749,10 +9749,10 @@
         </is>
       </c>
       <c r="P99" t="n">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="Q99" t="n">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="R99" t="inlineStr">
         <is>
@@ -9844,10 +9844,10 @@
         </is>
       </c>
       <c r="P100" t="n">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="Q100" t="n">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="R100" t="inlineStr">
         <is>
@@ -9939,10 +9939,10 @@
         </is>
       </c>
       <c r="P101" t="n">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="Q101" t="n">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="R101" t="inlineStr">
         <is>
@@ -10034,10 +10034,10 @@
         </is>
       </c>
       <c r="P102" t="n">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="Q102" t="n">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="R102" t="inlineStr">
         <is>
@@ -10129,7 +10129,7 @@
         </is>
       </c>
       <c r="P103" t="n">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="Q103" t="n">
         <v>82</v>
@@ -10224,10 +10224,10 @@
         </is>
       </c>
       <c r="P104" t="n">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="Q104" t="n">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="R104" t="inlineStr">
         <is>
@@ -10319,10 +10319,10 @@
         </is>
       </c>
       <c r="P105" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q105" t="n">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="R105" t="inlineStr">
         <is>
@@ -10414,10 +10414,10 @@
         </is>
       </c>
       <c r="P106" t="n">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="Q106" t="n">
-        <v>60</v>
+        <v>91</v>
       </c>
       <c r="R106" t="inlineStr">
         <is>
@@ -10509,10 +10509,10 @@
         </is>
       </c>
       <c r="P107" t="n">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="Q107" t="n">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="R107" t="inlineStr">
         <is>
@@ -10604,10 +10604,10 @@
         </is>
       </c>
       <c r="P108" t="n">
-        <v>84</v>
+        <v>45</v>
       </c>
       <c r="Q108" t="n">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="R108" t="inlineStr">
         <is>
@@ -10699,10 +10699,10 @@
         </is>
       </c>
       <c r="P109" t="n">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="Q109" t="n">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R109" t="inlineStr">
         <is>
@@ -10794,10 +10794,10 @@
         </is>
       </c>
       <c r="P110" t="n">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="Q110" t="n">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="R110" t="inlineStr">
         <is>
@@ -10889,7 +10889,7 @@
         </is>
       </c>
       <c r="P111" t="n">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="Q111" t="n">
         <v>77</v>
@@ -10984,10 +10984,10 @@
         </is>
       </c>
       <c r="P112" t="n">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="Q112" t="n">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="R112" t="inlineStr">
         <is>
@@ -11083,10 +11083,10 @@
         </is>
       </c>
       <c r="P113" t="n">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="Q113" t="n">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="R113" t="inlineStr">
         <is>
@@ -11182,10 +11182,10 @@
         </is>
       </c>
       <c r="P114" t="n">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="Q114" t="n">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="R114" t="inlineStr">
         <is>
@@ -11281,10 +11281,10 @@
         </is>
       </c>
       <c r="P115" t="n">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="Q115" t="n">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="R115" t="inlineStr">
         <is>
@@ -11380,10 +11380,10 @@
         </is>
       </c>
       <c r="P116" t="n">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="Q116" t="n">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="R116" t="inlineStr">
         <is>
@@ -11479,10 +11479,10 @@
         </is>
       </c>
       <c r="P117" t="n">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="Q117" t="n">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="R117" t="inlineStr">
         <is>
@@ -11578,10 +11578,10 @@
         </is>
       </c>
       <c r="P118" t="n">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="Q118" t="n">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R118" t="inlineStr">
         <is>
@@ -11677,10 +11677,10 @@
         </is>
       </c>
       <c r="P119" t="n">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="Q119" t="n">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="R119" t="inlineStr">
         <is>
@@ -11776,10 +11776,10 @@
         </is>
       </c>
       <c r="P120" t="n">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="Q120" t="n">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="R120" t="inlineStr">
         <is>
@@ -11875,10 +11875,10 @@
         </is>
       </c>
       <c r="P121" t="n">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="Q121" t="n">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="R121" t="inlineStr">
         <is>
@@ -11974,10 +11974,10 @@
         </is>
       </c>
       <c r="P122" t="n">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="Q122" t="n">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="R122" t="inlineStr">
         <is>
@@ -12073,10 +12073,10 @@
         </is>
       </c>
       <c r="P123" t="n">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="Q123" t="n">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="R123" t="inlineStr">
         <is>
@@ -12172,10 +12172,10 @@
         </is>
       </c>
       <c r="P124" t="n">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="Q124" t="n">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="R124" t="inlineStr">
         <is>
@@ -12271,10 +12271,10 @@
         </is>
       </c>
       <c r="P125" t="n">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="Q125" t="n">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="R125" t="inlineStr">
         <is>
@@ -12370,10 +12370,10 @@
         </is>
       </c>
       <c r="P126" t="n">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="Q126" t="n">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="R126" t="inlineStr">
         <is>
@@ -12469,10 +12469,10 @@
         </is>
       </c>
       <c r="P127" t="n">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="Q127" t="n">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="R127" t="inlineStr">
         <is>
@@ -12569,10 +12569,10 @@
         </is>
       </c>
       <c r="P128" t="n">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="Q128" t="n">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="R128" t="inlineStr">
         <is>
@@ -12668,10 +12668,10 @@
         </is>
       </c>
       <c r="P129" t="n">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="Q129" t="n">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="R129" t="inlineStr">
         <is>
@@ -12767,10 +12767,10 @@
         </is>
       </c>
       <c r="P130" t="n">
-        <v>52</v>
+        <v>83</v>
       </c>
       <c r="Q130" t="n">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="R130" t="inlineStr">
         <is>
@@ -12866,10 +12866,10 @@
         </is>
       </c>
       <c r="P131" t="n">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="Q131" t="n">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="R131" t="inlineStr">
         <is>
@@ -12965,10 +12965,10 @@
         </is>
       </c>
       <c r="P132" t="n">
+        <v>82</v>
+      </c>
+      <c r="Q132" t="n">
         <v>73</v>
-      </c>
-      <c r="Q132" t="n">
-        <v>70</v>
       </c>
       <c r="R132" t="inlineStr">
         <is>
@@ -13064,10 +13064,10 @@
         </is>
       </c>
       <c r="P133" t="n">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="Q133" t="n">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="R133" t="inlineStr">
         <is>
@@ -13163,10 +13163,10 @@
         </is>
       </c>
       <c r="P134" t="n">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="Q134" t="n">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="R134" t="inlineStr">
         <is>
@@ -13262,10 +13262,10 @@
         </is>
       </c>
       <c r="P135" t="n">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="Q135" t="n">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="R135" t="inlineStr">
         <is>
@@ -13361,10 +13361,10 @@
         </is>
       </c>
       <c r="P136" t="n">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="Q136" t="n">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="R136" t="inlineStr">
         <is>
@@ -13460,10 +13460,10 @@
         </is>
       </c>
       <c r="P137" t="n">
-        <v>74</v>
+        <v>100</v>
       </c>
       <c r="Q137" t="n">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="R137" t="inlineStr">
         <is>
@@ -13559,10 +13559,10 @@
         </is>
       </c>
       <c r="P138" t="n">
-        <v>59</v>
+        <v>80</v>
       </c>
       <c r="Q138" t="n">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="R138" t="inlineStr">
         <is>
@@ -13658,10 +13658,10 @@
         </is>
       </c>
       <c r="P139" t="n">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="Q139" t="n">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="R139" t="inlineStr">
         <is>
@@ -13757,10 +13757,10 @@
         </is>
       </c>
       <c r="P140" t="n">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="Q140" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="R140" t="inlineStr">
         <is>
@@ -13856,10 +13856,10 @@
         </is>
       </c>
       <c r="P141" t="n">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="Q141" t="n">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="R141" t="inlineStr">
         <is>
@@ -13954,7 +13954,7 @@
         <v>80</v>
       </c>
       <c r="Q142" t="n">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="R142" t="inlineStr">
         <is>
@@ -14046,10 +14046,10 @@
         </is>
       </c>
       <c r="P143" t="n">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="Q143" t="n">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="R143" t="inlineStr">
         <is>
@@ -14141,10 +14141,10 @@
         </is>
       </c>
       <c r="P144" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="Q144" t="n">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="R144" t="inlineStr">
         <is>
@@ -14236,10 +14236,10 @@
         </is>
       </c>
       <c r="P145" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="Q145" t="n">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="R145" t="inlineStr">
         <is>
@@ -14331,10 +14331,10 @@
         </is>
       </c>
       <c r="P146" t="n">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="Q146" t="n">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="R146" t="inlineStr">
         <is>
@@ -14426,10 +14426,10 @@
         </is>
       </c>
       <c r="P147" t="n">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="Q147" t="n">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="R147" t="inlineStr">
         <is>
@@ -14521,10 +14521,10 @@
         </is>
       </c>
       <c r="P148" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="Q148" t="n">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="R148" t="inlineStr">
         <is>
@@ -14616,10 +14616,10 @@
         </is>
       </c>
       <c r="P149" t="n">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="Q149" t="n">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="R149" t="inlineStr">
         <is>
@@ -14711,10 +14711,10 @@
         </is>
       </c>
       <c r="P150" t="n">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="Q150" t="n">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="R150" t="inlineStr">
         <is>
@@ -14806,10 +14806,10 @@
         </is>
       </c>
       <c r="P151" t="n">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="Q151" t="n">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="R151" t="inlineStr">
         <is>
@@ -14901,10 +14901,10 @@
         </is>
       </c>
       <c r="P152" t="n">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="Q152" t="n">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="R152" t="inlineStr">
         <is>
@@ -14996,10 +14996,10 @@
         </is>
       </c>
       <c r="P153" t="n">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Q153" t="n">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="R153" t="inlineStr">
         <is>

--- a/M-07(July)/Week-11/15 July/Prods/Training_Analysis/Analysis/cleaned_data.xlsx
+++ b/M-07(July)/Week-11/15 July/Prods/Training_Analysis/Analysis/cleaned_data.xlsx
@@ -610,10 +610,10 @@
       </c>
       <c r="O2" t="inlineStr"/>
       <c r="P2" t="n">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="Q2" t="n">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="R2" t="inlineStr">
         <is>
@@ -701,10 +701,10 @@
       </c>
       <c r="O3" t="inlineStr"/>
       <c r="P3" t="n">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="Q3" t="n">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="R3" t="inlineStr">
         <is>
@@ -792,10 +792,10 @@
       </c>
       <c r="O4" t="inlineStr"/>
       <c r="P4" t="n">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="Q4" t="n">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="R4" t="inlineStr">
         <is>
@@ -883,10 +883,10 @@
       </c>
       <c r="O5" t="inlineStr"/>
       <c r="P5" t="n">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="Q5" t="n">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>
@@ -974,10 +974,10 @@
       </c>
       <c r="O6" t="inlineStr"/>
       <c r="P6" t="n">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="Q6" t="n">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="R6" t="inlineStr">
         <is>
@@ -1065,7 +1065,7 @@
       </c>
       <c r="O7" t="inlineStr"/>
       <c r="P7" t="n">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="Q7" t="n">
         <v>75</v>
@@ -1156,10 +1156,10 @@
       </c>
       <c r="O8" t="inlineStr"/>
       <c r="P8" t="n">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="Q8" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="R8" t="inlineStr">
         <is>
@@ -1247,10 +1247,10 @@
       </c>
       <c r="O9" t="inlineStr"/>
       <c r="P9" t="n">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="Q9" t="n">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="R9" t="inlineStr">
         <is>
@@ -1338,10 +1338,10 @@
       </c>
       <c r="O10" t="inlineStr"/>
       <c r="P10" t="n">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="Q10" t="n">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="R10" t="inlineStr">
         <is>
@@ -1429,10 +1429,10 @@
       </c>
       <c r="O11" t="inlineStr"/>
       <c r="P11" t="n">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="Q11" t="n">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="R11" t="inlineStr">
         <is>
@@ -1520,10 +1520,10 @@
       </c>
       <c r="O12" t="inlineStr"/>
       <c r="P12" t="n">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="Q12" t="n">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R12" t="inlineStr">
         <is>
@@ -1611,10 +1611,10 @@
       </c>
       <c r="O13" t="inlineStr"/>
       <c r="P13" t="n">
-        <v>102</v>
+        <v>71</v>
       </c>
       <c r="Q13" t="n">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="R13" t="inlineStr">
         <is>
@@ -1702,10 +1702,10 @@
       </c>
       <c r="O14" t="inlineStr"/>
       <c r="P14" t="n">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="Q14" t="n">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="R14" t="inlineStr">
         <is>
@@ -1793,10 +1793,10 @@
       </c>
       <c r="O15" t="inlineStr"/>
       <c r="P15" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="Q15" t="n">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="R15" t="inlineStr">
         <is>
@@ -1884,10 +1884,10 @@
       </c>
       <c r="O16" t="inlineStr"/>
       <c r="P16" t="n">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="Q16" t="n">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="R16" t="inlineStr">
         <is>
@@ -1975,10 +1975,10 @@
       </c>
       <c r="O17" t="inlineStr"/>
       <c r="P17" t="n">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="Q17" t="n">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="R17" t="inlineStr">
         <is>
@@ -2066,10 +2066,10 @@
       </c>
       <c r="O18" t="inlineStr"/>
       <c r="P18" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="Q18" t="n">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="R18" t="inlineStr">
         <is>
@@ -2157,10 +2157,10 @@
       </c>
       <c r="O19" t="inlineStr"/>
       <c r="P19" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="Q19" t="n">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="R19" t="inlineStr">
         <is>
@@ -2248,10 +2248,10 @@
       </c>
       <c r="O20" t="inlineStr"/>
       <c r="P20" t="n">
-        <v>90</v>
+        <v>66</v>
       </c>
       <c r="Q20" t="n">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="R20" t="inlineStr">
         <is>
@@ -2339,10 +2339,10 @@
       </c>
       <c r="O21" t="inlineStr"/>
       <c r="P21" t="n">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="Q21" t="n">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="R21" t="inlineStr">
         <is>
@@ -2430,10 +2430,10 @@
       </c>
       <c r="O22" t="inlineStr"/>
       <c r="P22" t="n">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="Q22" t="n">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="R22" t="inlineStr">
         <is>
@@ -2521,10 +2521,10 @@
       </c>
       <c r="O23" t="inlineStr"/>
       <c r="P23" t="n">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="Q23" t="n">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="R23" t="inlineStr">
         <is>
@@ -2612,10 +2612,10 @@
       </c>
       <c r="O24" t="inlineStr"/>
       <c r="P24" t="n">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="Q24" t="n">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="R24" t="inlineStr">
         <is>
@@ -2703,10 +2703,10 @@
       </c>
       <c r="O25" t="inlineStr"/>
       <c r="P25" t="n">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="Q25" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="R25" t="inlineStr">
         <is>
@@ -2794,10 +2794,10 @@
       </c>
       <c r="O26" t="inlineStr"/>
       <c r="P26" t="n">
-        <v>72</v>
+        <v>45</v>
       </c>
       <c r="Q26" t="n">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="R26" t="inlineStr">
         <is>
@@ -2885,10 +2885,10 @@
       </c>
       <c r="O27" t="inlineStr"/>
       <c r="P27" t="n">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q27" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="R27" t="inlineStr">
         <is>
@@ -2976,10 +2976,10 @@
       </c>
       <c r="O28" t="inlineStr"/>
       <c r="P28" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="Q28" t="n">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="R28" t="inlineStr">
         <is>
@@ -3067,10 +3067,10 @@
       </c>
       <c r="O29" t="inlineStr"/>
       <c r="P29" t="n">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="Q29" t="n">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="R29" t="inlineStr">
         <is>
@@ -3158,10 +3158,10 @@
       </c>
       <c r="O30" t="inlineStr"/>
       <c r="P30" t="n">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="Q30" t="n">
-        <v>66</v>
+        <v>91</v>
       </c>
       <c r="R30" t="inlineStr">
         <is>
@@ -3249,10 +3249,10 @@
       </c>
       <c r="O31" t="inlineStr"/>
       <c r="P31" t="n">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Q31" t="n">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="R31" t="inlineStr">
         <is>
@@ -3340,10 +3340,10 @@
       </c>
       <c r="O32" t="inlineStr"/>
       <c r="P32" t="n">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="Q32" t="n">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="R32" t="inlineStr">
         <is>
@@ -3431,10 +3431,10 @@
       </c>
       <c r="O33" t="inlineStr"/>
       <c r="P33" t="n">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q33" t="n">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="R33" t="inlineStr">
         <is>
@@ -3522,10 +3522,10 @@
       </c>
       <c r="O34" t="inlineStr"/>
       <c r="P34" t="n">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="Q34" t="n">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="R34" t="inlineStr">
         <is>
@@ -3613,10 +3613,10 @@
       </c>
       <c r="O35" t="inlineStr"/>
       <c r="P35" t="n">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="Q35" t="n">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="R35" t="inlineStr">
         <is>
@@ -3704,10 +3704,10 @@
       </c>
       <c r="O36" t="inlineStr"/>
       <c r="P36" t="n">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="Q36" t="n">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="R36" t="inlineStr">
         <is>
@@ -3795,10 +3795,10 @@
       </c>
       <c r="O37" t="inlineStr"/>
       <c r="P37" t="n">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="Q37" t="n">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="R37" t="inlineStr">
         <is>
@@ -3886,10 +3886,10 @@
       </c>
       <c r="O38" t="inlineStr"/>
       <c r="P38" t="n">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="Q38" t="n">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="R38" t="inlineStr">
         <is>
@@ -3977,10 +3977,10 @@
       </c>
       <c r="O39" t="inlineStr"/>
       <c r="P39" t="n">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="Q39" t="n">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="R39" t="inlineStr">
         <is>
@@ -4068,10 +4068,10 @@
       </c>
       <c r="O40" t="inlineStr"/>
       <c r="P40" t="n">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="Q40" t="n">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="R40" t="inlineStr">
         <is>
@@ -4159,10 +4159,10 @@
       </c>
       <c r="O41" t="inlineStr"/>
       <c r="P41" t="n">
-        <v>86</v>
+        <v>48</v>
       </c>
       <c r="Q41" t="n">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="R41" t="inlineStr">
         <is>
@@ -4254,10 +4254,10 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="Q42" t="n">
-        <v>58</v>
+        <v>86</v>
       </c>
       <c r="R42" t="inlineStr">
         <is>
@@ -4349,10 +4349,10 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="Q43" t="n">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="R43" t="inlineStr">
         <is>
@@ -4444,10 +4444,10 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="Q44" t="n">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="R44" t="inlineStr">
         <is>
@@ -4539,10 +4539,10 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>87</v>
+        <v>61</v>
       </c>
       <c r="Q45" t="n">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R45" t="inlineStr">
         <is>
@@ -4634,10 +4634,10 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="Q46" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="R46" t="inlineStr">
         <is>
@@ -4729,10 +4729,10 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="Q47" t="n">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="R47" t="inlineStr">
         <is>
@@ -4824,10 +4824,10 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="Q48" t="n">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="R48" t="inlineStr">
         <is>
@@ -4919,10 +4919,10 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>59</v>
+        <v>90</v>
       </c>
       <c r="Q49" t="n">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="R49" t="inlineStr">
         <is>
@@ -5014,10 +5014,10 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="Q50" t="n">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="R50" t="inlineStr">
         <is>
@@ -5109,10 +5109,10 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="Q51" t="n">
-        <v>59</v>
+        <v>87</v>
       </c>
       <c r="R51" t="inlineStr">
         <is>
@@ -5204,10 +5204,10 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Q52" t="n">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="R52" t="inlineStr">
         <is>
@@ -5299,10 +5299,10 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="Q53" t="n">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="R53" t="inlineStr">
         <is>
@@ -5394,10 +5394,10 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="Q54" t="n">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="R54" t="inlineStr">
         <is>
@@ -5489,10 +5489,10 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="Q55" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="R55" t="inlineStr">
         <is>
@@ -5584,10 +5584,10 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="Q56" t="n">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="R56" t="inlineStr">
         <is>
@@ -5679,10 +5679,10 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="Q57" t="n">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="R57" t="inlineStr">
         <is>
@@ -5774,10 +5774,10 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="Q58" t="n">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="R58" t="inlineStr">
         <is>
@@ -5869,10 +5869,10 @@
         </is>
       </c>
       <c r="P59" t="n">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="Q59" t="n">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="R59" t="inlineStr">
         <is>
@@ -5964,10 +5964,10 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="Q60" t="n">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="R60" t="inlineStr">
         <is>
@@ -6059,10 +6059,10 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="Q61" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="R61" t="inlineStr">
         <is>
@@ -6154,10 +6154,10 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="Q62" t="n">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="R62" t="inlineStr">
         <is>
@@ -6249,10 +6249,10 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>92</v>
+        <v>67</v>
       </c>
       <c r="Q63" t="n">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="R63" t="inlineStr">
         <is>
@@ -6344,10 +6344,10 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="Q64" t="n">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="R64" t="inlineStr">
         <is>
@@ -6439,10 +6439,10 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="Q65" t="n">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="R65" t="inlineStr">
         <is>
@@ -6534,10 +6534,10 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="Q66" t="n">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="R66" t="inlineStr">
         <is>
@@ -6629,10 +6629,10 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="Q67" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="R67" t="inlineStr">
         <is>
@@ -6724,7 +6724,7 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="Q68" t="n">
         <v>83</v>
@@ -6819,10 +6819,10 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="Q69" t="n">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="R69" t="inlineStr">
         <is>
@@ -6914,10 +6914,10 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="Q70" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="R70" t="inlineStr">
         <is>
@@ -7009,10 +7009,10 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="Q71" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="R71" t="inlineStr">
         <is>
@@ -7104,10 +7104,10 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="Q72" t="n">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="R72" t="inlineStr">
         <is>
@@ -7199,10 +7199,10 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="Q73" t="n">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="R73" t="inlineStr">
         <is>
@@ -7294,10 +7294,10 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="Q74" t="n">
-        <v>67</v>
+        <v>90</v>
       </c>
       <c r="R74" t="inlineStr">
         <is>
@@ -7389,10 +7389,10 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q75" t="n">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="R75" t="inlineStr">
         <is>
@@ -7484,10 +7484,10 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="Q76" t="n">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="R76" t="inlineStr">
         <is>
@@ -7583,10 +7583,10 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="Q77" t="n">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="R77" t="inlineStr">
         <is>
@@ -7682,10 +7682,10 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="Q78" t="n">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R78" t="inlineStr">
         <is>
@@ -7781,10 +7781,10 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Q79" t="n">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="R79" t="inlineStr">
         <is>
@@ -7880,10 +7880,10 @@
         </is>
       </c>
       <c r="P80" t="n">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="Q80" t="n">
-        <v>89</v>
+        <v>58</v>
       </c>
       <c r="R80" t="inlineStr">
         <is>
@@ -7979,10 +7979,10 @@
         </is>
       </c>
       <c r="P81" t="n">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="Q81" t="n">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="R81" t="inlineStr">
         <is>
@@ -8078,10 +8078,10 @@
         </is>
       </c>
       <c r="P82" t="n">
+        <v>74</v>
+      </c>
+      <c r="Q82" t="n">
         <v>68</v>
-      </c>
-      <c r="Q82" t="n">
-        <v>61</v>
       </c>
       <c r="R82" t="inlineStr">
         <is>
@@ -8177,10 +8177,10 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="Q83" t="n">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="R83" t="inlineStr">
         <is>
@@ -8279,7 +8279,7 @@
         <v>70</v>
       </c>
       <c r="Q84" t="n">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="R84" t="inlineStr">
         <is>
@@ -8375,7 +8375,7 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="Q85" t="n">
         <v>65</v>
@@ -8474,10 +8474,10 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="Q86" t="n">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="R86" t="inlineStr">
         <is>
@@ -8573,10 +8573,10 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="Q87" t="n">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="R87" t="inlineStr">
         <is>
@@ -8672,10 +8672,10 @@
         </is>
       </c>
       <c r="P88" t="n">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="Q88" t="n">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="R88" t="inlineStr">
         <is>
@@ -8771,10 +8771,10 @@
         </is>
       </c>
       <c r="P89" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q89" t="n">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="R89" t="inlineStr">
         <is>
@@ -8870,10 +8870,10 @@
         </is>
       </c>
       <c r="P90" t="n">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="Q90" t="n">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="R90" t="inlineStr">
         <is>
@@ -8969,10 +8969,10 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="Q91" t="n">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="R91" t="inlineStr">
         <is>
@@ -9068,10 +9068,10 @@
         </is>
       </c>
       <c r="P92" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Q92" t="n">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="R92" t="inlineStr">
         <is>
@@ -9167,10 +9167,10 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="Q93" t="n">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="R93" t="inlineStr">
         <is>
@@ -9266,10 +9266,10 @@
         </is>
       </c>
       <c r="P94" t="n">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="Q94" t="n">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="R94" t="inlineStr">
         <is>
@@ -9365,10 +9365,10 @@
         </is>
       </c>
       <c r="P95" t="n">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="Q95" t="n">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="R95" t="inlineStr">
         <is>
@@ -9464,10 +9464,10 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="Q96" t="n">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="R96" t="inlineStr">
         <is>
@@ -9559,10 +9559,10 @@
         </is>
       </c>
       <c r="P97" t="n">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="Q97" t="n">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="R97" t="inlineStr">
         <is>
@@ -9654,10 +9654,10 @@
         </is>
       </c>
       <c r="P98" t="n">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="Q98" t="n">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="R98" t="inlineStr">
         <is>
@@ -9749,10 +9749,10 @@
         </is>
       </c>
       <c r="P99" t="n">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="Q99" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="R99" t="inlineStr">
         <is>
@@ -9844,10 +9844,10 @@
         </is>
       </c>
       <c r="P100" t="n">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="Q100" t="n">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="R100" t="inlineStr">
         <is>
@@ -9939,10 +9939,10 @@
         </is>
       </c>
       <c r="P101" t="n">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="Q101" t="n">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="R101" t="inlineStr">
         <is>
@@ -10034,10 +10034,10 @@
         </is>
       </c>
       <c r="P102" t="n">
-        <v>64</v>
+        <v>93</v>
       </c>
       <c r="Q102" t="n">
-        <v>59</v>
+        <v>90</v>
       </c>
       <c r="R102" t="inlineStr">
         <is>
@@ -10129,10 +10129,10 @@
         </is>
       </c>
       <c r="P103" t="n">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="Q103" t="n">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="R103" t="inlineStr">
         <is>
@@ -10224,10 +10224,10 @@
         </is>
       </c>
       <c r="P104" t="n">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="Q104" t="n">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="R104" t="inlineStr">
         <is>
@@ -10319,10 +10319,10 @@
         </is>
       </c>
       <c r="P105" t="n">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="Q105" t="n">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="R105" t="inlineStr">
         <is>
@@ -10414,10 +10414,10 @@
         </is>
       </c>
       <c r="P106" t="n">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="Q106" t="n">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="R106" t="inlineStr">
         <is>
@@ -10509,10 +10509,10 @@
         </is>
       </c>
       <c r="P107" t="n">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="Q107" t="n">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="R107" t="inlineStr">
         <is>
@@ -10604,10 +10604,10 @@
         </is>
       </c>
       <c r="P108" t="n">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="Q108" t="n">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="R108" t="inlineStr">
         <is>
@@ -10699,10 +10699,10 @@
         </is>
       </c>
       <c r="P109" t="n">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="Q109" t="n">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="R109" t="inlineStr">
         <is>
@@ -10794,10 +10794,10 @@
         </is>
       </c>
       <c r="P110" t="n">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="Q110" t="n">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="R110" t="inlineStr">
         <is>
@@ -10889,10 +10889,10 @@
         </is>
       </c>
       <c r="P111" t="n">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="Q111" t="n">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R111" t="inlineStr">
         <is>
@@ -10984,10 +10984,10 @@
         </is>
       </c>
       <c r="P112" t="n">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="Q112" t="n">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="R112" t="inlineStr">
         <is>
@@ -11083,10 +11083,10 @@
         </is>
       </c>
       <c r="P113" t="n">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="Q113" t="n">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="R113" t="inlineStr">
         <is>
@@ -11182,10 +11182,10 @@
         </is>
       </c>
       <c r="P114" t="n">
+        <v>63</v>
+      </c>
+      <c r="Q114" t="n">
         <v>72</v>
-      </c>
-      <c r="Q114" t="n">
-        <v>80</v>
       </c>
       <c r="R114" t="inlineStr">
         <is>
@@ -11281,10 +11281,10 @@
         </is>
       </c>
       <c r="P115" t="n">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="Q115" t="n">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="R115" t="inlineStr">
         <is>
@@ -11380,10 +11380,10 @@
         </is>
       </c>
       <c r="P116" t="n">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="Q116" t="n">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="R116" t="inlineStr">
         <is>
@@ -11479,10 +11479,10 @@
         </is>
       </c>
       <c r="P117" t="n">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="Q117" t="n">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="R117" t="inlineStr">
         <is>
@@ -11578,10 +11578,10 @@
         </is>
       </c>
       <c r="P118" t="n">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="Q118" t="n">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="R118" t="inlineStr">
         <is>
@@ -11677,10 +11677,10 @@
         </is>
       </c>
       <c r="P119" t="n">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="Q119" t="n">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="R119" t="inlineStr">
         <is>
@@ -11776,10 +11776,10 @@
         </is>
       </c>
       <c r="P120" t="n">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="Q120" t="n">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="R120" t="inlineStr">
         <is>
@@ -11875,10 +11875,10 @@
         </is>
       </c>
       <c r="P121" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Q121" t="n">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="R121" t="inlineStr">
         <is>
@@ -11974,10 +11974,10 @@
         </is>
       </c>
       <c r="P122" t="n">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="Q122" t="n">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="R122" t="inlineStr">
         <is>
@@ -12073,10 +12073,10 @@
         </is>
       </c>
       <c r="P123" t="n">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="Q123" t="n">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="R123" t="inlineStr">
         <is>
@@ -12172,10 +12172,10 @@
         </is>
       </c>
       <c r="P124" t="n">
-        <v>56</v>
+        <v>82</v>
       </c>
       <c r="Q124" t="n">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="R124" t="inlineStr">
         <is>
@@ -12271,10 +12271,10 @@
         </is>
       </c>
       <c r="P125" t="n">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="Q125" t="n">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="R125" t="inlineStr">
         <is>
@@ -12370,10 +12370,10 @@
         </is>
       </c>
       <c r="P126" t="n">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="Q126" t="n">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="R126" t="inlineStr">
         <is>
@@ -12469,10 +12469,10 @@
         </is>
       </c>
       <c r="P127" t="n">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="Q127" t="n">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="R127" t="inlineStr">
         <is>
@@ -12569,10 +12569,10 @@
         </is>
       </c>
       <c r="P128" t="n">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="Q128" t="n">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="R128" t="inlineStr">
         <is>
@@ -12668,10 +12668,10 @@
         </is>
       </c>
       <c r="P129" t="n">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="Q129" t="n">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="R129" t="inlineStr">
         <is>
@@ -12770,7 +12770,7 @@
         <v>83</v>
       </c>
       <c r="Q130" t="n">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R130" t="inlineStr">
         <is>
@@ -12866,10 +12866,10 @@
         </is>
       </c>
       <c r="P131" t="n">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="Q131" t="n">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="R131" t="inlineStr">
         <is>
@@ -12965,10 +12965,10 @@
         </is>
       </c>
       <c r="P132" t="n">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="Q132" t="n">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="R132" t="inlineStr">
         <is>
@@ -13064,10 +13064,10 @@
         </is>
       </c>
       <c r="P133" t="n">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="Q133" t="n">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="R133" t="inlineStr">
         <is>
@@ -13163,7 +13163,7 @@
         </is>
       </c>
       <c r="P134" t="n">
-        <v>86</v>
+        <v>61</v>
       </c>
       <c r="Q134" t="n">
         <v>77</v>
@@ -13262,10 +13262,10 @@
         </is>
       </c>
       <c r="P135" t="n">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="Q135" t="n">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="R135" t="inlineStr">
         <is>
@@ -13361,10 +13361,10 @@
         </is>
       </c>
       <c r="P136" t="n">
-        <v>62</v>
+        <v>88</v>
       </c>
       <c r="Q136" t="n">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="R136" t="inlineStr">
         <is>
@@ -13460,10 +13460,10 @@
         </is>
       </c>
       <c r="P137" t="n">
-        <v>100</v>
+        <v>61</v>
       </c>
       <c r="Q137" t="n">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="R137" t="inlineStr">
         <is>
@@ -13559,10 +13559,10 @@
         </is>
       </c>
       <c r="P138" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="Q138" t="n">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="R138" t="inlineStr">
         <is>
@@ -13658,10 +13658,10 @@
         </is>
       </c>
       <c r="P139" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Q139" t="n">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="R139" t="inlineStr">
         <is>
@@ -13757,10 +13757,10 @@
         </is>
       </c>
       <c r="P140" t="n">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="Q140" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="R140" t="inlineStr">
         <is>
@@ -13856,10 +13856,10 @@
         </is>
       </c>
       <c r="P141" t="n">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="Q141" t="n">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="R141" t="inlineStr">
         <is>
@@ -13951,10 +13951,10 @@
         </is>
       </c>
       <c r="P142" t="n">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="Q142" t="n">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="R142" t="inlineStr">
         <is>
@@ -14046,10 +14046,10 @@
         </is>
       </c>
       <c r="P143" t="n">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="Q143" t="n">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="R143" t="inlineStr">
         <is>
@@ -14141,10 +14141,10 @@
         </is>
       </c>
       <c r="P144" t="n">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="Q144" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="R144" t="inlineStr">
         <is>
@@ -14236,10 +14236,10 @@
         </is>
       </c>
       <c r="P145" t="n">
-        <v>65</v>
+        <v>88</v>
       </c>
       <c r="Q145" t="n">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="R145" t="inlineStr">
         <is>
@@ -14331,10 +14331,10 @@
         </is>
       </c>
       <c r="P146" t="n">
-        <v>66</v>
+        <v>88</v>
       </c>
       <c r="Q146" t="n">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="R146" t="inlineStr">
         <is>
@@ -14426,10 +14426,10 @@
         </is>
       </c>
       <c r="P147" t="n">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="Q147" t="n">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="R147" t="inlineStr">
         <is>
@@ -14524,7 +14524,7 @@
         <v>65</v>
       </c>
       <c r="Q148" t="n">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="R148" t="inlineStr">
         <is>
@@ -14616,10 +14616,10 @@
         </is>
       </c>
       <c r="P149" t="n">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="Q149" t="n">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="R149" t="inlineStr">
         <is>
@@ -14711,10 +14711,10 @@
         </is>
       </c>
       <c r="P150" t="n">
+        <v>71</v>
+      </c>
+      <c r="Q150" t="n">
         <v>78</v>
-      </c>
-      <c r="Q150" t="n">
-        <v>73</v>
       </c>
       <c r="R150" t="inlineStr">
         <is>
@@ -14806,10 +14806,10 @@
         </is>
       </c>
       <c r="P151" t="n">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="Q151" t="n">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="R151" t="inlineStr">
         <is>
@@ -14901,10 +14901,10 @@
         </is>
       </c>
       <c r="P152" t="n">
-        <v>87</v>
+        <v>55</v>
       </c>
       <c r="Q152" t="n">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="R152" t="inlineStr">
         <is>
@@ -14996,10 +14996,10 @@
         </is>
       </c>
       <c r="P153" t="n">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="Q153" t="n">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="R153" t="inlineStr">
         <is>
